--- a/documentation/Planification-NikolicStefan.xlsx
+++ b/documentation/Planification-NikolicStefan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STEFAN.NKLC\Documents\PHP\TPI-main-NikolicStefan\TPi-main-NikolicStefan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STEFAN.NKLC\Documents\PHP\TPI-main-NikolicStefan\TPi-main-NikolicStefan\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14DB2DE-1432-4E58-9D85-6986C41732EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3764581E-7ECE-4EAB-98E7-AEBB68C64BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,9 +127,6 @@
     <t>Suppression d'un utilisateur</t>
   </si>
   <si>
-    <t>Réalisation due défilme aléatoire des aliments</t>
-  </si>
-  <si>
     <t>Incrementation ou diminution du score selon l'aliment sélectionnait par rapport à la  catégorie</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Augmentation de la vitesse du défilment des aliments du  joueur ayant le score le plus petit</t>
+  </si>
+  <si>
+    <t>Réalisation du défilment aléatoire des aliments</t>
   </si>
 </sst>
 </file>
@@ -810,7 +810,7 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B12" s="25">
         <v>8.3333333333333329E-2</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="25">
         <v>8.3333333333333329E-2</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="20">
         <v>0.125</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="25">
         <v>0.1388888888888889</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="25">
         <v>8.3333333333333329E-2</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="25">
         <v>0.15972222222222224</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="12"/>

--- a/documentation/Planification-NikolicStefan.xlsx
+++ b/documentation/Planification-NikolicStefan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STEFAN.NKLC\Documents\PHP\TPI-main-NikolicStefan\TPi-main-NikolicStefan\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3764581E-7ECE-4EAB-98E7-AEBB68C64BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB1B289-4DF5-4256-8465-68028FE4FA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,10 +142,10 @@
     <t>Rendu final</t>
   </si>
   <si>
-    <t>Augmentation de la vitesse du défilment des aliments du  joueur ayant le score le plus petit</t>
-  </si>
-  <si>
-    <t>Réalisation du défilment aléatoire des aliments</t>
+    <t>Réalisation du défilement aléatoire des aliments</t>
+  </si>
+  <si>
+    <t>Augmentation de la vitesse du défilement des aliments du  joueur ayant le score le plus petit</t>
   </si>
 </sst>
 </file>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="25">
         <v>8.3333333333333329E-2</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="25">
         <v>8.3333333333333329E-2</v>
